--- a/Dataset Estimations.xlsx
+++ b/Dataset Estimations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Desktop\IntrinsicEstimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D150D5B2-20D1-4069-B6FD-F2DC4679C075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6443ACEB-E13A-48E1-A2B5-CBF1ABC200CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23880" yWindow="2910" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>Dataset 1</t>
   </si>
@@ -877,7 +877,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I11"/>
+      <selection activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1128,9 @@
         <v>123.11199999999999</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="9">
         <v>67.606999999999999</v>
@@ -1149,7 +1151,9 @@
         <v>15</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="8" t="s">
         <v>15</v>
@@ -1170,7 +1174,9 @@
         <v>21</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>55.389000000000003</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="9">
         <v>131.81100000000001</v>
@@ -1191,7 +1197,9 @@
         <v>43.106000000000002</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="8">
         <v>27.001000000000001</v>
@@ -1212,7 +1220,9 @@
         <v>10</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>10</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="9">
         <v>36.604999999999997</v>
@@ -1233,7 +1243,9 @@
         <v>42.530999999999999</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="8">
         <v>-106.952</v>
@@ -1254,7 +1266,9 @@
         <v>34.445</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="9">
         <v>21.109000000000002</v>
@@ -1275,7 +1289,9 @@
         <v>38.545999999999999</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="8">
         <v>210.453</v>
@@ -1296,7 +1312,9 @@
         <v>55.01</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>44.555999999999997</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="9">
         <v>57.328000000000003</v>
